--- a/Semana 3/Soporte Caso 5.xlsx
+++ b/Semana 3/Soporte Caso 5.xlsx
@@ -997,7 +997,7 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1809,7 +1809,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1852,7 +1852,7 @@
         <v>104</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>19919444</v>
+        <v>199194.44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1869,7 +1869,7 @@
         <v>38</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>11174167</v>
+        <v>111741.67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1886,7 +1886,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>11174167</v>
+        <v>111741.67</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,7 +1903,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>10776667</v>
+        <v>107766.67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1920,7 +1920,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>9186389</v>
+        <v>91863.89</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1937,7 +1937,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>7596389</v>
+        <v>75963.89</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1954,7 +1954,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>7463889</v>
+        <v>74638.89</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,7 +1971,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>11704167</v>
+        <v>117041.67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1988,7 +1988,7 @@
         <v>48</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>12499167</v>
+        <v>124991.67</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2005,7 +2005,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>6668889</v>
+        <v>66688.89</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,7 +2022,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>7198889</v>
+        <v>71988.89</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,7 +2039,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>9451389</v>
+        <v>94513.89</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2056,7 +2056,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>7066389</v>
+        <v>70663.89</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2073,7 +2073,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>6801389</v>
+        <v>68013.89</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2090,7 +2090,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>7331389</v>
+        <v>73313.89</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2107,7 +2107,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>6801389</v>
+        <v>68013.89</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,7 +2124,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>8523889</v>
+        <v>85238.89</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2141,7 +2141,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>7728889</v>
+        <v>77288.89</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2158,7 +2158,7 @@
         <v>29</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>9981667</v>
+        <v>99816.67</v>
       </c>
     </row>
   </sheetData>
